--- a/直播源汇总文档/移动直播源/黑龙江移动/黑龙江静态CDN_IPV6可用地址和可看频道汇总统计.xlsx
+++ b/直播源汇总文档/移动直播源/黑龙江移动/黑龙江静态CDN_IPV6可用地址和可看频道汇总统计.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="可看频道列表" sheetId="1" r:id="rId1"/>
+    <sheet name="重要信息" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$2521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">可看频道列表!$A$1:$A$2521</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="2521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="2582">
   <si>
     <t>CGTN西语,http://[2409:8087:1a15:10d1::6]/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226431/index.m3u8$黑龙江移动V6</t>
   </si>
@@ -7582,6 +7582,191 @@
   </si>
   <si>
     <t>Heilongjiang_Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至2025.9.13,黑龙江移动源已全部失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV-5+</t>
+  </si>
+  <si>
+    <t>睛彩竞技</t>
+  </si>
+  <si>
+    <t>睛彩篮球</t>
+  </si>
+  <si>
+    <t>睛彩青少</t>
+  </si>
+  <si>
+    <t>睛彩广场舞</t>
+  </si>
+  <si>
+    <t>安多卫视</t>
+  </si>
+  <si>
+    <t>黑龙江卫视</t>
+  </si>
+  <si>
+    <t>康巴卫视</t>
+  </si>
+  <si>
+    <t>山东教育卫视</t>
+  </si>
+  <si>
+    <t>延边卫视</t>
+  </si>
+  <si>
+    <t>NEWTV爱情喜剧</t>
+  </si>
+  <si>
+    <t>NEWTV超级电视剧</t>
+  </si>
+  <si>
+    <t>NEWTV超级电影</t>
+  </si>
+  <si>
+    <t>NEWTV超级体育</t>
+  </si>
+  <si>
+    <t>NEWTV超级综艺</t>
+  </si>
+  <si>
+    <t>NEWTV潮妈辣婆</t>
+  </si>
+  <si>
+    <t>NEWTV哒啵赛事</t>
+  </si>
+  <si>
+    <t>NEWTV东北热剧</t>
+  </si>
+  <si>
+    <t>NEWTV古装剧场</t>
+  </si>
+  <si>
+    <t>NEWTV海外剧场</t>
+  </si>
+  <si>
+    <t>NEWTV黑莓电影</t>
+  </si>
+  <si>
+    <t>NEWTV黑莓动画</t>
+  </si>
+  <si>
+    <t>NEWTV欢乐剧场</t>
+  </si>
+  <si>
+    <t>NEWTV家庭剧场</t>
+  </si>
+  <si>
+    <t>NEWTV金牌综艺</t>
+  </si>
+  <si>
+    <t>NEWTV惊悚悬疑</t>
+  </si>
+  <si>
+    <t>NEWTV精品大剧</t>
+  </si>
+  <si>
+    <t>NEWTV精品纪录</t>
+  </si>
+  <si>
+    <t>NEWTV精品萌宠</t>
+  </si>
+  <si>
+    <t>NEWTV精品体育</t>
+  </si>
+  <si>
+    <t>NEWTV军旅剧场</t>
+  </si>
+  <si>
+    <t>NEWTV军事评论</t>
+  </si>
+  <si>
+    <t>NEWTV明星大片</t>
+  </si>
+  <si>
+    <t>NEWTV农业致富</t>
+  </si>
+  <si>
+    <t>NEWTV武搏世界</t>
+  </si>
+  <si>
+    <t>NEWTV炫舞未来</t>
+  </si>
+  <si>
+    <t>NEWTV怡伴健康</t>
+  </si>
+  <si>
+    <t>黑龙江影视</t>
+  </si>
+  <si>
+    <t>黑龙江文体</t>
+  </si>
+  <si>
+    <t>黑龙江都市</t>
+  </si>
+  <si>
+    <t>黑龙江新闻法治</t>
+  </si>
+  <si>
+    <t>黑龙江农业科教</t>
+  </si>
+  <si>
+    <t>黑龙江少儿</t>
+  </si>
+  <si>
+    <t>哈尔滨新闻综合</t>
+  </si>
+  <si>
+    <t>哈尔滨影视</t>
+  </si>
+  <si>
+    <t>哈尔滨生活</t>
+  </si>
+  <si>
+    <t>伊春新闻综合</t>
+  </si>
+  <si>
+    <t>双鸭山新闻综合</t>
+  </si>
+  <si>
+    <t>齐齐哈尔新闻综合</t>
+  </si>
+  <si>
+    <t>齐齐哈尔经济法治</t>
+  </si>
+  <si>
+    <t>牡丹江新闻综合</t>
+  </si>
+  <si>
+    <t>漠河综合</t>
+  </si>
+  <si>
+    <t>佳木斯新闻综合</t>
+  </si>
+  <si>
+    <t>鸡西新闻综合</t>
+  </si>
+  <si>
+    <t>鸡西安全生活</t>
+  </si>
+  <si>
+    <t>鹤岗新闻综合</t>
+  </si>
+  <si>
+    <t>大兴安岭新闻综合</t>
+  </si>
+  <si>
+    <t>大庆新闻综合</t>
+  </si>
+  <si>
+    <t>大庆教育</t>
+  </si>
+  <si>
+    <t>黑龙江移动需要添加的频道如下:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20570,12 +20755,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
